--- a/biology/Médecine/Hématologie/Hématologie.xlsx
+++ b/biology/Médecine/Hématologie/Hématologie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%A9matologie</t>
+          <t>Hématologie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’hématologie[1] est la science qui étudie le sang et ses maladies (ou hémopathies). Elle étudie plus particulièrement les cellules sanguines dont l'origine est hématopoïétique (synthèse de ces cellules dans la moelle osseuse) et qui ont un rôle pour l'oxygénation, l'immunité et la coagulation, et étudie également certaines molécules plasmatiques que sont les facteurs de coagulation.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’hématologie est la science qui étudie le sang et ses maladies (ou hémopathies). Elle étudie plus particulièrement les cellules sanguines dont l'origine est hématopoïétique (synthèse de ces cellules dans la moelle osseuse) et qui ont un rôle pour l'oxygénation, l'immunité et la coagulation, et étudie également certaines molécules plasmatiques que sont les facteurs de coagulation.
 L'hématologie est généralement divisée en deux sous-domaines :
 un versant clinique avec l'hématologie clinique, consistant à la prise en charge directe des malades, du diagnostic clinique à la prise en charge thérapeutique ;
 un versant biologique/pathologique avec l'hématologie biologique (ou hématopathologie) qui s'occupe du diagnostic des pathologies sur des échantillons de sang/moelle osseuse.
@@ -497,7 +509,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%A9matologie</t>
+          <t>Hématologie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -517,85 +529,200 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Chiffres
-Les maladies hématologiques graves, que sont les lymphomes et les leucémies, sont des cancers peu fréquents, ils ont en France une incidence de respectivement 15 nouveaux cas et 7 nouveaux cas par an et pour 100 000 personnes[2].
-Facteurs de risques
-Il y a peu de facteurs de risque recensés pour ces maladies, on peut citer :
+          <t>Chiffres</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les maladies hématologiques graves, que sont les lymphomes et les leucémies, sont des cancers peu fréquents, ils ont en France une incidence de respectivement 15 nouveaux cas et 7 nouveaux cas par an et pour 100 000 personnes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Hématologie</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9matologie</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Répartition des maladies hématologiques dans la population</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Facteurs de risques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Il y a peu de facteurs de risque recensés pour ces maladies, on peut citer :
 l'exposition à certains produits chimiques[Lesquels ?] ; ;
 les rayonnements ionisants.
 Pour les défauts de certains facteurs de coagulation et de certaines cellules les facteurs de risques sont :
 régime pauvre en fer ;
 régime pauvre en certaines vitamines ;
-règles abondantes.
-Mesures de prévention
-La prévention consiste simplement à légiférer et à réduire l'exposition à certains produits chimiques et rayonnements ionisants, particulièrement dans certaines industries[Lesquelles ?].
+règles abondantes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hématologie</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9matologie</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Répartition des maladies hématologiques dans la population</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Mesures de prévention</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La prévention consiste simplement à légiférer et à réduire l'exposition à certains produits chimiques et rayonnements ionisants, particulièrement dans certaines industries[Lesquelles ?].
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>H%C3%A9matologie</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/H%C3%A9matologie</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Hématologie</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9matologie</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Disciplines fondamentales en hématologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Anatomie et histologie
-La moelle osseuse
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Anatomie et histologie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>La moelle osseuse
 Le tissu lymphoïde et système lymphatique
-La circulation sanguine
-Physiologie hématologique
-La physiologie permet de savoir quels sont les mécanismes concernant un domaine médical et ainsi mieux comprendre les maladies, mieux les diagnostiquer et les guérir.
+La circulation sanguine</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Hématologie</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9matologie</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Disciplines fondamentales en hématologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Physiologie hématologique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>La physiologie permet de savoir quels sont les mécanismes concernant un domaine médical et ainsi mieux comprendre les maladies, mieux les diagnostiquer et les guérir.
 La coagulation
 L'hématopoïèse
 La genèse des cancers, voir Oncologie.</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>H%C3%A9matologie</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/H%C3%A9matologie</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Hématologie</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9matologie</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Les affections hématologiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Les maladies hématologiques sont nommées « Hémopathies ».
 L'hématologie est communément divisée en trois sous catégories, en fonction du groupe de cellules étudiée (érythrocytes, globules blanc ou leucocytes, plaquettes). Cette subdivision reste incomplète, puisque de nombreuses maladies affectent certains ou tous les composants du sang et de la moelle osseuse.
@@ -627,34 +754,39 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>H%C3%A9matologie</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/H%C3%A9matologie</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Hématologie</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9matologie</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Sémiologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Principaux signes cliniques
-Signes cliniques :
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Principaux signes cliniques</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Signes cliniques :
 Splénomégalie
 Adénopathie pathologique (supérieure à 1 cm, sauf au pli inguinal : supérieure à 2 cm)
 Signes d'anémie
@@ -669,9 +801,43 @@
 Amaigrissement
 Fièvre
 Sueur nocturne
-Prurit généralisé
-Examens complémentaires
-Les tests les plus utilisés dans l’étude des problèmes hématologiques sont :
+Prurit généralisé</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Hématologie</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9matologie</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Sémiologie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Examens complémentaires</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Les tests les plus utilisés dans l’étude des problèmes hématologiques sont :
 l’hémogramme (ou numération formule sanguine, NFS) généralement automatisé, permet de mettre en évidence en hématologie les signes suivants :
 anémie (macrocytaire, normocytaire ou microcytaire en fonction du VGM, et régénérative ou arégénérative en fonction des réticulocytes) / polyglobulie,
 thrombopénie / thrombocytose,
@@ -685,31 +851,33 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>H%C3%A9matologie</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/H%C3%A9matologie</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Hématologie</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9matologie</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Traitements</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">Les traitements proposés sont :
 l’utilisation de médicaments notamment la supplémentation en fer ou vitamine dans les anémies ;
@@ -731,34 +899,39 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>H%C3%A9matologie</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/H%C3%A9matologie</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Hématologie</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/H%C3%A9matologie</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Histoire de l'hématologie</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Hématologistes célèbres
-Jean Bernard (1907-2006), hématologue français.</t>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Hématologistes célèbres</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Jean Bernard (1907-2006), hématologue français.</t>
         </is>
       </c>
     </row>
